--- a/Dataset/Folds/Fold_1/Excel/21.xlsx
+++ b/Dataset/Folds/Fold_1/Excel/21.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3351" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3759" uniqueCount="401">
   <si>
     <t>Doi</t>
   </si>
@@ -1274,6 +1274,135 @@
   </si>
   <si>
     <t>[ Y D%Peng%elasticNoEmail%2,   K% Meng%elasticNoEmail%2,   H Q% Guan%elasticNoEmail%2,   L% Leng%elasticNoEmail%2,   R R% Zhu%elasticNoEmail%2,   B Y% Wang%elasticNoEmail%2,   M A% He%elasticNoEmail%2,   L X% Cheng%elasticNoEmail%2,   K% Huang%elasticNoEmail%2,   Q T% Zeng%elasticNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                           Yeming%Wang%NULL%0,                           Xingwang%Li%NULL%0,                           Lili%Ren%NULL%0,                           Jianping%Zhao%NULL%0,                           Yi%Hu%NULL%0,                           Li%Zhang%NULL%0,                           Guohui%Fan%NULL%0,                           Jiuyang%Xu%NULL%0,                           Xiaoying%Gu%NULL%0,                           Zhenshun%Cheng%NULL%0,                           Ting%Yu%NULL%0,                           Jiaan%Xia%NULL%0,                           Yuan%Wei%NULL%0,                           Wenjuan%Wu%NULL%0,                           Xuelei%Xie%NULL%0,                           Wen%Yin%NULL%0,                           Hui%Li%NULL%0,                           Min%Liu%NULL%0,                           Yan%Xiao%NULL%0,                           Hong%Gao%NULL%0,                           Li%Guo%NULL%0,                           Jungang%Xie%NULL%0,                           Guangfa%Wang%NULL%0,                           Rongmeng%Jiang%NULL%0,                           Zhancheng%Gao%NULL%0,                           Qi%Jin%NULL%0,                           Jianwei%Wang%wangjw28@163.com%0,                           Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%5,                           Wei%Liu%NULL%0,                           Kui%Liu%NULL%2,                           Yuan-Yuan%Fang%NULL%0,                           Jin%Shang%NULL%1,                           Ling%Zhou%NULL%1,                           Ke%Wang%NULL%0,                           Fan%Leng%NULL%1,                           Shuang%Wei%NULL%1,                           Lei%Chen%NULL%1,                           Hui-Guo%Liu%NULL%0,                           Pei-Fang%Wei%NULL%0,                           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yichun%Cheng%NULL%1,                           Ran%Luo%NULL%1,                           Kun%Wang%NULL%2,                           Meng%Zhang%NULL%1,                           Zhixiang%Wang%NULL%1,                           Lei%Dong%NULL%1,                           Junhua%Li%NULL%2,                           Ying%Yao%NULL%1,                           Shuwang%Ge%geshuwang@tjh.tjmu.edu.cn%1,                           Gang%Xu%xugang@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%2,                           Travis%Eastin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luwen%Wang%NULL%2,                           Xun%Li%NULL%2,                           Hui%Chen%NULL%1,                           Shaonan%Yan%NULL%1,                           Dong%Li%NULL%1,                           Yan%Li%NULL%1,                           Zuojiong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                           Xiao-Xin%Wu%NULL%0,                           Xian-Gao%Jiang%NULL%0,                           Kai-Jin%Xu%NULL%0,                           Ling-Jun%Ying%NULL%0,                           Chun-Lian%Ma%NULL%0,                           Shi-Bo%Li%NULL%0,                           Hua-Ying%Wang%NULL%0,                           Sheng%Zhang%NULL%0,                           Hai-Nv%Gao%NULL%0,                           Ji-Fang%Sheng%NULL%0,                           Hong-Liu%Cai%NULL%0,                           Yun-Qing%Qiu%NULL%0,                           Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%3,                           Jie%Zhang%945128911@qq.com%1,                           Bowen%Wang%NULL%1,                           Xionglin%Zhu%NULL%1,                           Qiang%Wang%NULL%1,                           Shiming%Qiu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%2,                           Huan%Cai%NULL%1,                           Jianhua%Hu%NULL%1,                           Jiangshan%Lian%NULL%1,                           Jueqing%Gu%NULL%1,                           Shanyan%Zhang%NULL%1,                           Chanyuan%Ye%NULL%1,                           Yingfeng%Lu%NULL%1,                           Ciliang%Jin%NULL%1,                           Guodong%Yu%NULL%1,                           Hongyu%Jia%NULL%1,                           Yimin%Zhang%NULL%1,                           Jifang%Sheng%jifang_sheng@zju.edu.cn%1,                           Lanjuan%Li%ljli@zju.edu.cn%0,                           Yida%Yang%yidayang65@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                           Ting%Yu%NULL%0,                           Ronghui%Du%NULL%2,                           Guohui%Fan%NULL%0,                           Ying%Liu%NULL%0,                           Zhibo%Liu%NULL%2,                           Jie%Xiang%NULL%0,                           Yeming%Wang%NULL%0,                           Bin%Song%NULL%2,                           Xiaoying%Gu%NULL%0,                           Lulu%Guan%NULL%2,                           Yuan%Wei%NULL%0,                           Hui%Li%NULL%0,                           Xudong%Wu%NULL%2,                           Jiuyang%Xu%NULL%0,                           Shengjin%Tu%NULL%2,                           Yi%Zhang%NULL%2,                           Hua%Chen%NULL%2,                           Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                            Yeming%Wang%NULL%0,                            Xingwang%Li%NULL%0,                            Lili%Ren%NULL%0,                            Jianping%Zhao%NULL%0,                            Yi%Hu%NULL%0,                            Li%Zhang%NULL%0,                            Guohui%Fan%NULL%0,                            Jiuyang%Xu%NULL%0,                            Xiaoying%Gu%NULL%0,                            Zhenshun%Cheng%NULL%0,                            Ting%Yu%NULL%0,                            Jiaan%Xia%NULL%0,                            Yuan%Wei%NULL%0,                            Wenjuan%Wu%NULL%0,                            Xuelei%Xie%NULL%0,                            Wen%Yin%NULL%0,                            Hui%Li%NULL%0,                            Min%Liu%NULL%0,                            Yan%Xiao%NULL%0,                            Hong%Gao%NULL%0,                            Li%Guo%NULL%0,                            Jungang%Xie%NULL%0,                            Guangfa%Wang%NULL%0,                            Rongmeng%Jiang%NULL%0,                            Zhancheng%Gao%NULL%0,                            Qi%Jin%NULL%0,                            Jianwei%Wang%wangjw28@163.com%0,                            Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%5,                            Wei%Liu%NULL%0,                            Kui%Liu%NULL%2,                            Yuan-Yuan%Fang%NULL%0,                            Jin%Shang%NULL%1,                            Ling%Zhou%NULL%1,                            Ke%Wang%NULL%0,                            Fan%Leng%NULL%1,                            Shuang%Wei%NULL%1,                            Lei%Chen%NULL%1,                            Hui-Guo%Liu%NULL%0,                            Pei-Fang%Wei%NULL%0,                            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yichun%Cheng%NULL%1,                            Ran%Luo%NULL%1,                            Kun%Wang%NULL%2,                            Meng%Zhang%NULL%1,                            Zhixiang%Wang%NULL%1,                            Lei%Dong%NULL%1,                            Junhua%Li%NULL%2,                            Ying%Yao%NULL%1,                            Shuwang%Ge%geshuwang@tjh.tjmu.edu.cn%1,                            Gang%Xu%xugang@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%2,                            Travis%Eastin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luwen%Wang%NULL%2,                            Xun%Li%NULL%2,                            Hui%Chen%NULL%1,                            Shaonan%Yan%NULL%1,                            Dong%Li%NULL%1,                            Yan%Li%NULL%1,                            Zuojiong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                            Xiao-Xin%Wu%NULL%0,                            Xian-Gao%Jiang%NULL%0,                            Kai-Jin%Xu%NULL%0,                            Ling-Jun%Ying%NULL%0,                            Chun-Lian%Ma%NULL%0,                            Shi-Bo%Li%NULL%0,                            Hua-Ying%Wang%NULL%0,                            Sheng%Zhang%NULL%0,                            Hai-Nv%Gao%NULL%0,                            Ji-Fang%Sheng%NULL%0,                            Hong-Liu%Cai%NULL%0,                            Yun-Qing%Qiu%NULL%0,                            Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%3,                            Jie%Zhang%945128911@qq.com%1,                            Bowen%Wang%NULL%1,                            Xionglin%Zhu%NULL%1,                            Qiang%Wang%NULL%1,                            Shiming%Qiu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%2,                            Huan%Cai%NULL%1,                            Jianhua%Hu%NULL%1,                            Jiangshan%Lian%NULL%1,                            Jueqing%Gu%NULL%1,                            Shanyan%Zhang%NULL%1,                            Chanyuan%Ye%NULL%1,                            Yingfeng%Lu%NULL%1,                            Ciliang%Jin%NULL%1,                            Guodong%Yu%NULL%1,                            Hongyu%Jia%NULL%1,                            Yimin%Zhang%NULL%1,                            Jifang%Sheng%jifang_sheng@zju.edu.cn%1,                            Lanjuan%Li%ljli@zju.edu.cn%0,                            Yida%Yang%yidayang65@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                            Ting%Yu%NULL%0,                            Ronghui%Du%NULL%2,                            Guohui%Fan%NULL%0,                            Ying%Liu%NULL%0,                            Zhibo%Liu%NULL%2,                            Jie%Xiang%NULL%0,                            Yeming%Wang%NULL%0,                            Bin%Song%NULL%2,                            Xiaoying%Gu%NULL%0,                            Lulu%Guan%NULL%2,                            Yuan%Wei%NULL%0,                            Hui%Li%NULL%0,                            Xudong%Wu%NULL%2,                            Jiuyang%Xu%NULL%0,                            Shengjin%Tu%NULL%2,                            Yi%Zhang%NULL%2,                            Hua%Chen%NULL%2,                            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0, Yeming%Wang%NULL%0, Xingwang%Li%NULL%0, Lili%Ren%NULL%0, Jianping%Zhao%NULL%0, Yi%Hu%NULL%0, Li%Zhang%NULL%0, Guohui%Fan%NULL%0, Jiuyang%Xu%NULL%0, Xiaoying%Gu%NULL%0, Zhenshun%Cheng%NULL%0, Ting%Yu%NULL%0, Jiaan%Xia%NULL%0, Yuan%Wei%NULL%0, Wenjuan%Wu%NULL%0, Xuelei%Xie%NULL%0, Wen%Yin%NULL%0, Hui%Li%NULL%0, Min%Liu%NULL%0, Yan%Xiao%NULL%0, Hong%Gao%NULL%0, Li%Guo%NULL%0, Jungang%Xie%NULL%0, Guangfa%Wang%NULL%0, Rongmeng%Jiang%NULL%0, Zhancheng%Gao%NULL%0, Qi%Jin%NULL%0, Jianwei%Wang%wangjw28@163.com%0, Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0, Wei%Liu%NULL%0, Kui%Liu%NULL%0, Yuan-Yuan%Fang%NULL%0, Jin%Shang%NULL%5, Ling%Zhou%NULL%0, Ke%Wang%NULL%0, Fan%Leng%NULL%5, Shuang%Wei%NULL%0, Lei%Chen%NULL%5, Hui-Guo%Liu%NULL%0, Pei-Fang%Wei%NULL%0, Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>Wolters Kluwer Health</t>
+  </si>
+  <si>
+    <t>In December 2019, a coronavirus 2019 (COVID-19) disease outbreak occurred in Wuhan, Hubei Province, China, and rapidly spread to other areas worldwide.
+ Although diffuse alveolar damage and acute respiratory failure were the main features, the involvement of other organs needs to be explored.
+ Since information on kidney disease in patients with COVID-19 is limited, we determined the prevalence of acute kidney injury (AKI) in patients with COVID-19. Further, we evaluated the association between markers of abnormal kidney function and death in patients with COVID-19. This was a prospective cohort study of 701 patients with COVID-19 admitted in a tertiary teaching hospital that also encompassed three affiliates following this major outbreak in Wuhan in 2020 of whom 113 (16.1%) died in hospital.
+ Median age of the patients was 63 years (interquartile range, 50-71), including 367 men and 334 women.
+ On admission, 43.9% of patients had proteinuria and 26.7% had hematuria.
+ The prevalence of elevated serum creatinine, elevated blood urea nitrogen and estimated glomerular filtration under 60 ml/min/1.73m2 were 14.4, 13.1 and 13.1%, respectively.
+ During the study period, AKI occurred in 5.1% patients.
+ Kaplan-Meier analysis demonstrated that patients with kidney disease had a significantly higher risk for in-hospital death.
+ Cox proportional hazard regression confirmed that elevated baseline serum creatinine (hazard ratio: 2.10, 95% confidence interval: 1.36-3.26), elevated baseline blood urea nitrogen (3.97, 2.57-6.14), AKI stage 1 (1.90, 0.76-4.76), stage 2 (3.51, 1.49-8.26), stage 3 (4.38, 2.31-8.31), proteinuria 1+ (1.80, 0.81-4.00), 2+∼3+ (4.84, 2.00-11.70), and hematuria 1+ (2.99, 1.39-6.42), 2+∼3+ (5.56,2.58- 12.01) were independent risk factors for in-hospital death after adjusting for age, sex, disease severity, comorbidity and leukocyte count.
+ Thus, our findings show the prevalence of kidney disease on admission and the development of AKI during hospitalization in patients with COVID-19 is high and is associated with in-hospital mortality.
+ Hence, clinicians should increase their awareness of kidney disease in patients with severe COVID-19.</t>
+  </si>
+  <si>
+    <t>[Yichun%Cheng%NULL%0, Ran%Luo%NULL%1, Kun%Wang%NULL%0, Meng%Zhang%NULL%3, Zhixiang%Wang%NULL%1, Lei%Dong%NULL%1, Junhua%Li%NULL%3, Ying%Yao%NULL%1, Shuwang%Ge%geshuwang@tjh.tjmu.edu.cn%1, Gang%Xu%xugang@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>International Society of Nephrology. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Carly%Eastin%NULL%0, Travis%Eastin%NULL%2]</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t>[Manoocher%Soleimani%NULL%0]</t>
+  </si>
+  <si>
+    <t>MDPI</t>
+  </si>
+  <si>
+    <t>[Luwen%Wang%NULL%0, Xun%Li%NULL%3, Hui%Chen%NULL%0, Shaonan%Yan%NULL%2, Dong%Li%NULL%2, Yan%Li%NULL%0, Zuojiong%Gong%NULL%2]</t>
+  </si>
+  <si>
+    <t>S. Karger AG</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0, Xiao-Xin%Wu%NULL%0, Xian-Gao%Jiang%NULL%0, Kai-Jin%Xu%NULL%0, Ling-Jun%Ying%NULL%0, Chun-Lian%Ma%NULL%0, Shi-Bo%Li%NULL%0, Hua-Ying%Wang%NULL%0, Sheng%Zhang%NULL%0, Hai-Nv%Gao%NULL%0, Ji-Fang%Sheng%NULL%0, Hong-Liu%Cai%NULL%0, Yun-Qing%Qiu%NULL%0, Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group Ltd.</t>
+  </si>
+  <si>
+    <t>[Gemin%Zhang%NULL%0, Jie%Zhang%945128911@qq.com%0, Bowen%Wang%NULL%3, Xionglin%Zhu%NULL%3, Qiang%Wang%NULL%6, Shiming%Qiu%NULL%3]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              • COVID-19 has a great threat to world health.
+</t>
+  </si>
+  <si>
+    <t>[Xiaoli%Zhang%NULL%0, Huan%Cai%NULL%3, Jianhua%Hu%NULL%3, Jiangshan%Lian%NULL%3, Jueqing%Gu%NULL%3, Shanyan%Zhang%NULL%3, Chanyuan%Ye%NULL%0, Yingfeng%Lu%NULL%3, Ciliang%Jin%NULL%3, Guodong%Yu%NULL%3, Hongyu%Jia%NULL%3, Yimin%Zhang%NULL%3, Jifang%Sheng%jifang_sheng@zju.edu.cn%0, Lanjuan%Li%ljli@zju.edu.cn%0, Yida%Yang%yidayang65@zju.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>The Author(s). Published by Elsevier Ltd on behalf of International Society for Infectious Diseases.</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0, Ting%Yu%NULL%0, Ronghui%Du%NULL%0, Guohui%Fan%NULL%0, Ying%Liu%NULL%0, Zhibo%Liu%NULL%0, Jie%Xiang%NULL%0, Yeming%Wang%NULL%0, Bin%Song%NULL%0, Xiaoying%Gu%NULL%0, Lulu%Guan%NULL%0, Yuan%Wei%NULL%0, Hui%Li%NULL%0, Xudong%Wu%NULL%0, Jiuyang%Xu%NULL%0, Shengjin%Tu%NULL%0, Yi%Zhang%NULL%0, Hua%Chen%NULL%0, Bin%Cao%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1619,22 +1748,22 @@
         <v>44036.0</v>
       </c>
       <c r="C2" t="s">
-        <v>321</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>345</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>346</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>325</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
         <v>45</v>
@@ -1651,22 +1780,22 @@
         <v>43949.0</v>
       </c>
       <c r="C3" t="s">
-        <v>326</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>347</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>348</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>329</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
@@ -1683,7 +1812,7 @@
         <v>43921.0</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -1692,19 +1821,19 @@
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
         <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>270</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -1721,7 +1850,7 @@
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="F5" t="s">
         <v>33</v>
@@ -1733,10 +1862,10 @@
         <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6">
@@ -1753,7 +1882,7 @@
         <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="F6" t="s">
         <v>38</v>
@@ -1765,10 +1894,10 @@
         <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7">
@@ -1782,10 +1911,10 @@
         <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>384</v>
       </c>
       <c r="E7" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="F7" t="s">
         <v>42</v>
@@ -1797,10 +1926,10 @@
         <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8">
@@ -1817,7 +1946,7 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="F8" t="s">
         <v>47</v>
@@ -1829,10 +1958,10 @@
         <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9">
@@ -1843,25 +1972,25 @@
         <v>44013.0</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>353</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
         <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>245</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
         <v>45</v>
@@ -1881,7 +2010,7 @@
         <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>389</v>
       </c>
       <c r="F10" t="s">
         <v>50</v>
@@ -1893,10 +2022,10 @@
         <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11">
@@ -1913,7 +2042,7 @@
         <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -1925,10 +2054,10 @@
         <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12">
@@ -1945,7 +2074,7 @@
         <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="F12" t="s">
         <v>60</v>
@@ -1957,10 +2086,10 @@
         <v>61</v>
       </c>
       <c r="I12" t="s">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13">
@@ -1971,22 +2100,22 @@
         <v>43949.0</v>
       </c>
       <c r="C13" t="s">
-        <v>326</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>347</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>356</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>329</v>
+        <v>29</v>
       </c>
       <c r="I13" t="s">
         <v>45</v>
@@ -2006,10 +2135,10 @@
         <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>181</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="F14" t="s">
         <v>65</v>
@@ -2021,10 +2150,10 @@
         <v>66</v>
       </c>
       <c r="I14" t="s">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15">
@@ -2038,10 +2167,10 @@
         <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>397</v>
       </c>
       <c r="E15" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="F15" t="s">
         <v>70</v>
@@ -2053,10 +2182,10 @@
         <v>71</v>
       </c>
       <c r="I15" t="s">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16">
@@ -2073,7 +2202,7 @@
         <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="F16" t="s">
         <v>75</v>
@@ -2085,10 +2214,10 @@
         <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17">
@@ -2099,22 +2228,22 @@
         <v>44006.0</v>
       </c>
       <c r="C17" t="s">
-        <v>341</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>360</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>361</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>344</v>
+        <v>29</v>
       </c>
       <c r="I17" t="s">
         <v>45</v>
